--- a/Backlog/DrySprint_August2014.xlsx
+++ b/Backlog/DrySprint_August2014.xlsx
@@ -8,18 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Contirbutors" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$B$1:$N$1</definedName>
+    <definedName name="fnames" comment="Used in data validation for names across this work book.Define is again when necessary in Contributors tab.">Contirbutors!$B$3:$B$4</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Tasks</t>
   </si>
@@ -49,6 +50,39 @@
   </si>
   <si>
     <t>Github repository</t>
+  </si>
+  <si>
+    <t>SlNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratik </t>
+  </si>
+  <si>
+    <t>Pattanaik</t>
+  </si>
+  <si>
+    <t>Gunti</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Contributor Name</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
   </si>
 </sst>
 </file>
@@ -97,10 +131,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N6"/>
+  <dimension ref="B1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -450,6 +487,9 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -458,6 +498,9 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -466,6 +509,9 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
@@ -473,6 +519,14 @@
     <row r="6" spans="2:14">
       <c r="B6" t="s">
         <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -480,6 +534,17 @@
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
   </autoFilter>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
+      <formula1>"fnames"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D25">
+      <formula1>fnames</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C234">
+      <formula1>"Cancelled, Not Started, In Progress, Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -487,13 +552,160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Backlog/DrySprint_August2014.xlsx
+++ b/Backlog/DrySprint_August2014.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Tasks</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>Cancelled</t>
+  </si>
+  <si>
+    <t>effectively traverse a website (relevant links )</t>
+  </si>
+  <si>
+    <t>user interface to interact with the website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nlp code to process user input </t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
 </sst>
 </file>
@@ -131,12 +143,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N7"/>
+  <dimension ref="B1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -527,6 +542,36 @@
     <row r="7" spans="2:14">
       <c r="C7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="30">
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="30">
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
